--- a/results/I3_N5_M3_T30_C150_DepCentral_s3_P1_res.xlsx
+++ b/results/I3_N5_M3_T30_C150_DepCentral_s3_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>942.1892728190916</v>
+        <v>1571.518995610193</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.002999782562255859</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.08999080920084</v>
+        <v>19.85485207586932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.300554388190483</v>
+        <v>13.29756500142714</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.889836398081229</v>
+        <v>4.961708535750589</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>591.0099999999999</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>326.5</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.43422928288365</v>
+        <v>15.79579898937523</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.53978881378947</v>
+        <v>12.69023945846941</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.612049279841017</v>
+        <v>23.61797899241786</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>10.33301651610693</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28.40611391909631</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>22.62482380361045</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1073,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1101,13 +1101,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1115,13 +1115,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1143,13 +1143,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1157,15 +1157,57 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1268,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>89.26999999999951</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1279,7 +1321,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>81.12499999999949</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1332,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>86.98499999999947</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -1301,7 +1343,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>78.56999999999947</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1354,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>83.56499999999949</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12">
@@ -1323,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>167.7799999999993</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -1334,7 +1376,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>171.0899999999993</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
@@ -1345,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>165.1299999999993</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -1356,7 +1398,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>165.2649999999992</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -1367,7 +1409,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>166.5199999999993</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -1378,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>35.25999999999986</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18">
@@ -1389,7 +1431,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>27.32499999999985</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19">
@@ -1400,7 +1442,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>30.18999999999986</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20">
@@ -1411,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>25.3</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1464,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>28.38999999999985</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22">
@@ -1433,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>67.32000000000029</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1444,7 +1486,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>76.2050000000003</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1455,7 +1497,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>81.1900000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1466,7 +1508,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>70.59000000000029</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1477,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>74.58500000000029</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1488,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>206.85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>209.13</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1510,7 +1552,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>202.465</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -1521,7 +1563,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>213.09</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1532,7 +1574,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>213.97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1543,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>206.85</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33">
@@ -1554,7 +1596,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>209.13</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34">
@@ -1565,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>202.465</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
@@ -1576,7 +1618,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>213.09</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36">
@@ -1587,7 +1629,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>213.97</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37">
@@ -1598,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>67.32000000000029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1609,7 +1651,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>76.2050000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1620,7 +1662,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>81.1900000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1631,7 +1673,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>70.59000000000029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1642,7 +1684,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>74.58500000000029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1744,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>56.85</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
@@ -1755,7 +1797,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>59.13</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4">
@@ -1766,7 +1808,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>52.46499999999997</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5">
@@ -1777,7 +1819,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>63.08999999999997</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
@@ -1788,7 +1830,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>63.97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7">
@@ -1945,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1956,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1967,7 +2009,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1978,7 +2020,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1989,7 +2031,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2000,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2011,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2022,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2033,7 +2075,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -2044,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2055,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>10.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2066,7 +2108,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2077,7 +2119,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>12.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2088,7 +2130,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>12.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2099,7 +2141,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>12.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2110,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2121,7 +2163,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2132,7 +2174,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2143,7 +2185,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2154,7 +2196,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2165,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.905</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2176,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.405</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2187,7 +2229,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2198,7 +2240,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.495</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2209,7 +2251,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2250,7 +2292,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2261,7 +2303,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2272,7 +2314,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2283,7 +2325,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2294,7 +2336,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2305,10 +2347,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2316,10 +2358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2327,10 +2369,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2338,10 +2380,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2349,12 +2391,45 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
         <v>1</v>
       </c>
     </row>
